--- a/woo-product-excel-importer/sample_excel/import_products.xlsx
+++ b/woo-product-excel-importer/sample_excel/import_products.xlsx
@@ -69,26 +69,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>COMMA SEPARATED FOR MULTIPLE</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SKU</t>
   </si>
@@ -148,25 +134,13 @@
   </si>
   <si>
     <t>PRODUCT TAG</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>http://yourdomain.com/imageurl.png</t>
-  </si>
-  <si>
-    <t>PRODUCT IMAGE GALLERY</t>
-  </si>
-  <si>
-    <t>http://domain.com/image2.jpg,http://domain.com/image3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,28 +164,6 @@
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,21 +189,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,10 +514,9 @@
     <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -612,14 +556,8 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -659,21 +597,11 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="O2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
